--- a/laya/csv/HeroConfig.xlsx
+++ b/laya/csv/HeroConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\layabox\work\Shogun_xx\laya\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\layabox\work\Shogun_old\Shogun_laya2.0v\laya\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245CD6C9-EB2F-499A-BA14-49C40493AB21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC1D0FA-DAAE-42DB-BB5C-5D175C85AE87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="271">
   <si>
     <t>id</t>
   </si>
@@ -148,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>syntheticExp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乱世人命如草芥。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,10 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>什么时候才能做到百发百中啊。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6700</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,10 +292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>速度，就是我们的生命。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>骑兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战场上，死的最快的往往是那些最怕死的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弓兵队长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,10 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注意射箭次序，不要慌乱。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>骑兵队长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -416,10 +384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>往前跑，不要回头！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>步兵校尉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,10 +416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天下，是大人物的天下，与我何干。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弓兵校尉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -484,10 +444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有我们弓手在的地方，就是收割生命的地方。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>骑兵校尉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -520,10 +476,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兄弟们跟我走，冲开敌人阵脚。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>孙尚香</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -552,10 +504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赔了夫人又折兵，你们真是图样图森破。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>夏侯惇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,10 +536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>父精母血，不可弃也！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>甘宁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -620,10 +564,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>来啊，浪啊~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄忠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -656,10 +596,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一支穿云箭，中了大雁烤来吃。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>甄姬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -672,10 +608,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一首洛神赋，不再是旧日人间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>204800</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -704,10 +636,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>策马横槊，所向披靡，江东再无敌手。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>409600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -752,10 +680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西凉儿郎自有一番胆量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>典韦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -784,10 +708,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主公快走，我来断后。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大乔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -800,10 +720,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>好姐妹应有福同享有难同当</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3276800</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -832,10 +748,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周郎真是天妒英才。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6553600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -868,10 +780,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>燕人张翼德在此！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13107200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -900,10 +808,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>为将之道，勿以胜为喜，勿以败为忧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>26214400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -932,10 +836,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>别人叫我“虎痴”，不代表我真的虎。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>52428800</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -964,10 +864,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大丈夫生于乱世，当带三尺之剑，立不世之功！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>104857600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1000,10 +896,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>唯愿天下太平，得与温侯同隐山林。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>209715200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1044,10 +936,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常山赵子龙在此，休得伤我主公！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1080,10 +968,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看尔乃插标卖首！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1116,10 +1000,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>诸葛匹夫岂能敌我？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1030</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1148,10 +1028,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>既生瑜，何生亮？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1176,10 +1052,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大耳贼！不记辕门射戟时耶？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2800</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1201,10 +1073,6 @@
   </si>
   <si>
     <t>1.42609798817382E+16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一统天下，指日可待！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1650,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -1668,11 +1536,10 @@
     <col min="8" max="8" width="23.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="45.75" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="1"/>
+    <col min="11" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1680,34 +1547,31 @@
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1715,34 +1579,31 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1750,34 +1611,31 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1785,1046 +1643,956 @@
         <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="H4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
